--- a/Datas/Dialogue.xlsx
+++ b/Datas/Dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA870D0B-6DA2-4234-B6D7-F4DE31E9B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F632A85A-320D-41FD-89EA-AE16F5FC2F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{DB0E0BEE-18CC-4138-A6F7-746F1B45D6FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB0E0BEE-18CC-4138-A6F7-746F1B45D6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,19 +539,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F7A3CF-5DA1-46F4-85AB-F3B979A42E21}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="83.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -637,7 +637,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>1000</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>1001</v>
       </c>
@@ -665,7 +665,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7">
         <v>1002</v>
       </c>
@@ -679,7 +679,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>1003</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9">
         <v>1004</v>
       </c>
@@ -707,7 +707,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>1005</v>
       </c>
@@ -716,6 +716,14 @@
       </c>
       <c r="D10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>2001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Dialogue.xlsx
+++ b/Datas/Dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F632A85A-320D-41FD-89EA-AE16F5FC2F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0194D21-0620-4E1C-8AAA-41DAF1D8B35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB0E0BEE-18CC-4138-A6F7-746F1B45D6FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Option4</t>
   </si>
   <si>
-    <t>Oh, you're awake! Finally. We were starting to worry. You'll need your strength for the journey ahead</t>
-  </si>
-  <si>
-    <t>Take these equipments.</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -95,16 +89,43 @@
     <t>OPAction3</t>
   </si>
   <si>
-    <t>sentence 1002</t>
-  </si>
-  <si>
-    <t>sentence 1003</t>
-  </si>
-  <si>
-    <t>sentence 1004</t>
-  </si>
-  <si>
-    <t>sentence 1005</t>
+    <t>"Yes, welcome to Eldoria, the heart of our humble beginnings. Here, every adventurer starts their journey."</t>
+  </si>
+  <si>
+    <t>"Excuse me, are you the village elder?"</t>
+  </si>
+  <si>
+    <t>"Indeed, I am. I see a spark of potential in your eyes. This village will prepare you for the challenges ahead."</t>
+  </si>
+  <si>
+    <t>"What are those buildings over there?"</t>
+  </si>
+  <si>
+    <t>"To your left is the General Store, where you can buy supplies. To the right is the Training Ground, where you can hone your skills."</t>
+  </si>
+  <si>
+    <t>"How can I get stronger?"</t>
+  </si>
+  <si>
+    <t>"Complete quests for the villagers. Each task will teach you something new and help you grow. Speak to Mara at the quest board for your first assignment."</t>
+  </si>
+  <si>
+    <t>"Hi, are you Mara? The elder said I should speak with you about quests."</t>
+  </si>
+  <si>
+    <t>"Yes, that's me! Here’s your first quest: collect five healing herbs from the forest. It will help you learn about the local flora."</t>
+  </si>
+  <si>
+    <t>"What's that glowing fountain in the center of the village?"</t>
+  </si>
+  <si>
+    <t>"That's the Healing Fountain. It restores your health and energy. Many adventurers visit it after a long day of quests."</t>
+  </si>
+  <si>
+    <t>If you need to buy something, please contact me.</t>
+  </si>
+  <si>
+    <t>If you need a story, come to me.</t>
   </si>
 </sst>
 </file>
@@ -539,16 +560,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F7A3CF-5DA1-46F4-85AB-F3B979A42E21}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="83.19921875" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" customWidth="1"/>
+    <col min="3" max="3" width="95.5" customWidth="1"/>
+    <col min="4" max="4" width="34.09765625" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -565,25 +587,25 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -642,10 +664,10 @@
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1001</v>
@@ -656,10 +678,10 @@
         <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1002</v>
@@ -670,10 +692,10 @@
         <v>1002</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1003</v>
@@ -684,10 +706,10 @@
         <v>1003</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1004</v>
@@ -698,10 +720,10 @@
         <v>1004</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1005</v>
@@ -712,10 +734,10 @@
         <v>1005</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -723,7 +745,23 @@
         <v>2001</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>2002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
